--- a/cost functions.xlsx
+++ b/cost functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdepaor2\Desktop\Moneyball_IAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AB8D03-424E-4591-96B6-BEE7B3F2BA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91D69A4-34C4-47D5-9EED-6D9ECD10CF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{5BFB5337-61F8-47C8-A9D2-E27CFA8EE50A}"/>
   </bookViews>
@@ -1458,7 +1458,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1471,7 +1471,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR"/>
+              <a:rPr lang="fr-FR" sz="1100"/>
               <a:t>Structure</a:t>
             </a:r>
           </a:p>
@@ -1490,7 +1490,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1573,7 +1573,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1699,7 +1699,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1761,7 +1761,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1853,7 +1853,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1866,7 +1866,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR"/>
+              <a:rPr lang="fr-FR" sz="1100"/>
               <a:t>Thermal</a:t>
             </a:r>
           </a:p>
@@ -1885,7 +1885,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1968,7 +1968,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2094,7 +2094,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2156,7 +2156,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2248,7 +2248,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2261,7 +2261,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR"/>
+              <a:rPr lang="fr-FR" sz="1100"/>
               <a:t>Motor</a:t>
             </a:r>
           </a:p>
@@ -2280,7 +2280,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2346,8 +2346,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.963600786024028E-2"/>
-                  <c:y val="-0.20653277777777779"/>
+                  <c:x val="0.10017754177059025"/>
+                  <c:y val="-0.17820332825028518"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2363,7 +2363,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2489,7 +2489,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2551,7 +2551,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2643,7 +2643,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2656,7 +2656,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR"/>
+              <a:rPr lang="fr-FR" sz="1100"/>
               <a:t>Tanks</a:t>
             </a:r>
           </a:p>
@@ -2675,7 +2675,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2758,7 +2758,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2884,7 +2884,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2946,7 +2946,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7026,15 +7026,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
+      <xdr:colOff>339020</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:colOff>92154</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>7058</xdr:rowOff>
+      <xdr:rowOff>8963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7063,16 +7063,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>84086</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:rowOff>114902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>533735</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>186353</xdr:rowOff>
+      <xdr:colOff>9860</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>23713</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7101,16 +7101,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>334229</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>3740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>242383</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>29470</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>77361</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>81143</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7139,16 +7139,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>84394</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>4945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>735441</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>40676</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>20828</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>84253</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7481,9 +7481,9 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>83.055000000000007</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>88.715000000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>71.724999999999994</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>260.48500000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>125.52499999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -7683,37 +7683,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8924D228-A04B-4239-8159-372162BDBDC4}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
@@ -7750,7 +7750,7 @@
       <c r="U2" s="18"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="V5" s="8"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="V6" s="8"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -8113,7 +8113,7 @@
       </c>
       <c r="V8" s="13"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -8136,7 +8136,7 @@
       <c r="U9" s="7"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
@@ -8159,7 +8159,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -8182,7 +8182,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
@@ -8205,7 +8205,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
@@ -8228,7 +8228,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
@@ -8251,7 +8251,7 @@
       <c r="U14" s="7"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
@@ -8274,7 +8274,7 @@
       <c r="U15" s="7"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
@@ -8297,7 +8297,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
